--- a/画像投稿サイト.xlsx
+++ b/画像投稿サイト.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE1D4D-BF2A-45EB-9D04-656754CB0B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16035" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データフロー" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル定義書" sheetId="2" r:id="rId2"/>
+    <sheet name="画面投稿" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>写真投稿サイトの処理、データの流れ</t>
   </si>
@@ -65,9 +85,6 @@
     <t>公開フラグ</t>
   </si>
   <si>
-    <t>0,1のデータ制約</t>
-  </si>
-  <si>
     <t>create_date</t>
   </si>
   <si>
@@ -82,18 +99,132 @@
   <si>
     <t>表示、非表示、画像アップロード時に日時を更新</t>
   </si>
+  <si>
+    <t>0(非表示),1(表示)のデータ制約</t>
+    <rPh sb="2" eb="5">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像投稿ページ、画像設定ページ</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウトウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像投稿方法</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウトウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①「ファイル選択」ボタンをクリックします。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>②jpgファイルまたはpngファイルを選択します。(大文字、小文字どちらも選択できます)</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>③画像名のテキストボックスに、「ファイル選択」横のファイル名を入力します。</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.画像投稿、画像設定ページ</t>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>④「送信」ボタンをクリックします。</t>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑤「画像投稿」タイトルの下に成功時、失敗時のメッセージが表示されます。</t>
+    <rPh sb="2" eb="6">
+      <t>ガゾウトウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シッパイジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,349 +237,53 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -499,255 +334,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,69 +356,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -839,9 +400,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキストボックス 22"/>
+        <xdr:cNvPr id="23" name="テキストボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -992,7 +559,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>非表示フラグ、更新日の更新</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1011,9 +577,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキストボックス 21"/>
+        <xdr:cNvPr id="22" name="テキストボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1156,7 +728,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>画像名、画像ファイル名、登録日データを挿入</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1175,9 +746,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキストボックス 17"/>
+        <xdr:cNvPr id="18" name="テキストボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1320,7 +897,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>画像ファイルを保存する</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1339,9 +915,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキストボックス 10"/>
+        <xdr:cNvPr id="11" name="テキストボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1482,7 +1064,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>メッセージをファイルに書き込む</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1501,9 +1082,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート：処理 1"/>
+        <xdr:cNvPr id="2" name="フローチャート：処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1531,13 +1118,13 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>work30.php</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1553,7 +1140,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1572,9 +1158,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート：処理 2"/>
+        <xdr:cNvPr id="3" name="フローチャート：処理 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1707,7 +1299,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>work30update.php</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1723,7 +1314,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1742,9 +1332,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキストボックス 5"/>
+        <xdr:cNvPr id="6" name="テキストボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1782,6 +1378,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1796,7 +1393,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>非表示</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1815,9 +1411,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート：書類 7"/>
+        <xdr:cNvPr id="8" name="フローチャート：書類 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1851,13 +1453,13 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>メッセージファイル</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1876,9 +1478,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="1"/>
           <a:endCxn id="8" idx="0"/>
@@ -1926,9 +1534,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -1976,9 +1590,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキストボックス 11"/>
+        <xdr:cNvPr id="12" name="テキストボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2121,7 +1741,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>処理結果をブラウザに出力</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2140,9 +1759,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2187,9 +1812,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="フローチャート：磁気ディスク 13"/>
+        <xdr:cNvPr id="14" name="フローチャート：磁気ディスク 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2222,6 +1853,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2247,9 +1879,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキストボックス 14"/>
+        <xdr:cNvPr id="15" name="テキストボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2287,6 +1925,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2303,10 +1942,6 @@
             </a:rPr>
             <a:t>ディスク</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2325,9 +1960,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="14" idx="1"/>
@@ -2375,9 +2016,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="20" idx="0"/>
@@ -2425,9 +2072,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="フローチャート：データ 19"/>
+        <xdr:cNvPr id="20" name="フローチャート：データ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2455,6 +2108,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600"/>
@@ -2488,9 +2142,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="20" idx="0"/>
@@ -2523,6 +2183,630 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>588293</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00DE239-B971-20BF-38A9-0F8AC5E5A6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="838200"/>
+          <a:ext cx="10951493" cy="5875020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596949</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A954723-6925-9ECA-69A7-0D1A89D5298A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="8602980"/>
+          <a:ext cx="10937289" cy="5867400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A748529-C770-07A2-0119-511DD6EA69BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5242560" y="8016240"/>
+          <a:ext cx="2705100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -195192"/>
+            <a:gd name="adj2" fmla="val 628487"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「ファイルを選択」ボタンをクリックします。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0982826C-E18E-42E1-A16D-BDC52D7E2C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15476220"/>
+          <a:ext cx="10972800" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BC0CD3-CB16-41C3-82E4-01C2813692C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11894820" y="15765780"/>
+          <a:ext cx="1844040" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -340393"/>
+            <a:gd name="adj2" fmla="val 498595"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>①jpgファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左クリックして</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEC9181-98F4-443F-907A-2DCB6362A24F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="17922240"/>
+          <a:ext cx="1844040" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -219319"/>
+            <a:gd name="adj2" fmla="val 332493"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②「開く」を左クリックします</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>602497</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4146B84-9685-3705-D7A6-CD8A8471E444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22616160"/>
+          <a:ext cx="10965697" cy="5882640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66790ED8-FBBB-4B93-B7CC-3B95DE10D7FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="22280880"/>
+          <a:ext cx="1905000" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -594386"/>
+            <a:gd name="adj2" fmla="val 309848"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストボックスに「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>test20.jpg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」を入力します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7102</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62BE7727-290A-5A49-C53C-4297A01B9478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30327600"/>
+          <a:ext cx="10979902" cy="5890260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E785E8B-19AE-4746-9D58-11F89E72C8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10378440" y="29215080"/>
+          <a:ext cx="1905000" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -452786"/>
+            <a:gd name="adj2" fmla="val 562355"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストボックスに「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>test20.jpg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」を入力します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>602497</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD61D61B-8C40-4843-1CBD-B0C698512253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36697920"/>
+          <a:ext cx="10965697" cy="5882640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2780,55 +3064,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" ht="17.25" spans="2:2">
+    <row r="3" spans="2:2" ht="16.2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="46.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="17.25" spans="2:2">
+    <row r="3" spans="2:6" ht="16.2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="3:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2842,7 +3125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="3:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2870,7 +3153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -2880,36 +3163,93 @@
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0515D18-A218-4003-A11F-288E78CFE8E1}">
+  <dimension ref="B3:B217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>